--- a/Excel/TaskConfig@cs.xlsx
+++ b/Excel/TaskConfig@cs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B58BC29-623B-491C-AD36-25B44E2E3EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF8794-A431-462C-9210-D6F48175A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2250" windowWidth="23190" windowHeight="13200" xr2:uid="{90D94D78-DE3C-4282-AA29-0BE6E2AA845A}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="23190" windowHeight="13200" xr2:uid="{90D94D78-DE3C-4282-AA29-0BE6E2AA845A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -594,7 +595,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -731,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -757,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -783,7 +784,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -809,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -835,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -861,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -900,7 +901,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -926,7 +927,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -952,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -978,7 +979,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1004,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1030,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1056,7 +1057,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>

--- a/Excel/TaskConfig@cs.xlsx
+++ b/Excel/TaskConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF8794-A431-462C-9210-D6F48175A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA91A8C-80A9-48FC-91CA-B4A1593E2B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="23190" windowHeight="13200" xr2:uid="{90D94D78-DE3C-4282-AA29-0BE6E2AA845A}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
